--- a/order.xlsx
+++ b/order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judhaha/WorkPrograms/swt_work_order/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477AEE85-C91B-D941-8076-E591C0AB0F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EEE02D-BDA6-AD41-AB4A-88D4C655ED78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="520" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EFAY - 2023 JAN" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">    E F A Y 月 維 運 紀 錄 表</t>
   </si>
@@ -40,10 +40,8 @@
     <t>處理方式</t>
   </si>
   <si>
-    <t>程序</t>
-  </si>
-  <si>
     <t>狀態</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -181,38 +179,38 @@
     <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -534,55 +532,53 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="43.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="6.6640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32" customHeight="1">
-      <c r="A1" s="8"/>
+    <row r="1" spans="1:7" ht="32" customHeight="1">
+      <c r="A1" s="5"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:8" ht="10" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+    <row r="2" spans="1:7" ht="10" customHeight="1">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="19" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:7" ht="19" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
@@ -595,15 +591,12 @@
       <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/order.xlsx
+++ b/order.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/judhaha/WorkPrograms/swt_work_order/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Desktop\swt_work_order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EEE02D-BDA6-AD41-AB4A-88D4C655ED78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0DB57A-769E-4388-B2DD-B61168C0C5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="520" windowWidth="14400" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EFAY - 2023 JAN" sheetId="1" r:id="rId1"/>
+    <sheet name="order_sample" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -51,7 +51,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;NT$&quot;#,##0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -536,22 +536,22 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="3.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" customHeight="1">
+    <row r="1" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5"/>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" ht="10" customHeight="1">
+    <row r="2" spans="1:7" ht="10" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
       <c r="C2" s="7"/>
@@ -573,7 +573,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="19" customHeight="1">
+    <row r="3" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="12" t="s">
         <v>2</v>
